--- a/data/evaluation/evaluation_Center_Summer_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2760.419044304837</v>
+        <v>2743.431579367785</v>
       </c>
       <c r="C4" t="n">
-        <v>12961004.88990169</v>
+        <v>12954617.65061112</v>
       </c>
       <c r="D4" t="n">
-        <v>3600.139565336557</v>
+        <v>3599.252373842534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3313431511927816</v>
+        <v>0.3316726681810779</v>
       </c>
     </row>
     <row r="5">
